--- a/Data/CapacityOut.xlsx
+++ b/Data/CapacityOut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee65a08843967445/Desktop/Master Ordner Konsti/03_Studium/Master/Sustainable Energy - Energy Systems Analysis/Masterarbeit/MasterThesis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{6E8E3ABF-E1D4-487D-BFAA-0E18E1E721AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E44252F-0F9B-4DDE-AA3F-99A2A24B4326}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{6E8E3ABF-E1D4-487D-BFAA-0E18E1E721AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2259CCD9-A8CD-4FA3-821F-06862B3EB6AA}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="-13590" windowWidth="14400" windowHeight="7305" xr2:uid="{78BD2541-F343-4015-B5CC-84BA663EC01C}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{78BD2541-F343-4015-B5CC-84BA663EC01C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,10 +452,13 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -494,7 +497,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -502,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
